--- a/clients/excel/Reporte_expensas.xlsx
+++ b/clients/excel/Reporte_expensas.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26502"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A5EDADF-1525-4692-8661-304D306C5A81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B652968-2298-4AAF-81A3-0CDA7A2282F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28560" windowHeight="13905" xr2:uid="{A22C7B05-6B0A-4116-A99A-60EDDEA67682}"/>
   </bookViews>
@@ -265,17 +265,20 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -284,9 +287,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -605,7 +605,8 @@
   <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -667,22 +668,22 @@
       <c r="K2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="M2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="N2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="12" t="s">
+      <c r="O2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="12" t="s">
+      <c r="P2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="12" t="s">
+      <c r="Q2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="R2" s="2" t="s">
@@ -690,13 +691,13 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="15" customHeight="1">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -720,57 +721,57 @@
       <c r="J3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11" t="s">
+      <c r="M3" s="12"/>
+      <c r="N3" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11" t="s">
+      <c r="O3" s="12"/>
+      <c r="P3" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="Q3" s="11"/>
+      <c r="Q3" s="12"/>
       <c r="R3" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:18">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="6"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="5"/>
     </row>
     <row r="5" spans="1:18">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
       <c r="L5" s="4" t="s">
         <v>33</v>
       </c>
@@ -789,27 +790,27 @@
       <c r="Q5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="R5" s="6"/>
+      <c r="R5" s="5"/>
     </row>
     <row r="6" spans="1:18">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="1"/>
@@ -848,12 +849,12 @@
     <mergeCell ref="I3:I6"/>
     <mergeCell ref="J3:J6"/>
     <mergeCell ref="K3:K6"/>
+    <mergeCell ref="F3:F6"/>
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="B3:B6"/>
     <mergeCell ref="C3:C6"/>
     <mergeCell ref="D3:D6"/>
     <mergeCell ref="E3:E6"/>
-    <mergeCell ref="F3:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
